--- a/2-Excel/class-00-base-excel.xlsx
+++ b/2-Excel/class-00-base-excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analyst-Course/1-Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analysis-Course/2-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{491C1D26-61DC-4852-8EDF-3299C4EF6050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC636BEC-D422-4595-9C42-5B448B541017}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{491C1D26-61DC-4852-8EDF-3299C4EF6050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BED9BFF-18E7-48C2-AD92-73B286D45B7D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{134D3C76-D541-455F-A7B8-E5D0974EC93B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{134D3C76-D541-455F-A7B8-E5D0974EC93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <t>A9</t>
   </si>
   <si>
-    <t>emanuel</t>
+    <t>Emanuel</t>
   </si>
 </sst>
 </file>
@@ -197,12 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Algerian"/>
-      <family val="5"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,8 +209,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -280,7 +287,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -305,9 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,6 +334,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -349,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +396,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,9 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E680E24-0911-4BAF-9139-050197B2C114}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -668,7 +673,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -710,7 +715,7 @@
         <f>IF(D4&gt;$H$9,"ACIMA DA MÉDIA","")</f>
         <v/>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="3">
@@ -720,7 +725,7 @@
       <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>45215</v>
       </c>
     </row>
@@ -741,24 +746,24 @@
         <f t="shared" ref="E5:E7" si="0">IF(D5&gt;$H$9,"ACIMA DA MÉDIA","")</f>
         <v/>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <f>MAX(D:D)</f>
         <v>5000</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <f>LARGE(D:D,K5)</f>
         <v>5000</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <v>45216</v>
       </c>
     </row>
@@ -779,24 +784,24 @@
         <f t="shared" si="0"/>
         <v>ACIMA DA MÉDIA</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f>MIN(D:D)</f>
         <v>2000</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f>LARGE(D:D,K6)</f>
         <v>3000</v>
       </c>
       <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="21">
         <v>45217</v>
       </c>
     </row>
@@ -817,63 +822,63 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <f>LARGE(D:D,I7)</f>
         <v>5000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f>LARGE(D:D,K7)</f>
         <v>3000</v>
       </c>
       <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="21">
         <v>45218</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6"/>
-      <c r="D8" s="18"/>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="17"/>
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <f>SMALL(D:D,I8)</f>
         <v>2000</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="21">
         <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f>AVERAGE(D:D)</f>
         <v>3250</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="21">
         <v>45220</v>
       </c>
     </row>
@@ -881,24 +886,24 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>20</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="2">
         <f>COUNTA(D:D)</f>
         <v>6</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f>SUM(D:D)/COUNTA(D4:D7)</f>
         <v>3250</v>
       </c>
       <c r="O10" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <v>45221</v>
       </c>
     </row>
@@ -906,10 +911,10 @@
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="2">
@@ -922,7 +927,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D12" s="6"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="2" t="str">
@@ -940,40 +945,40 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="G13" s="14"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <f>C10+C11</f>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <f>C10-C11</f>
         <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <f>C10*C11</f>
         <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>C10/C11</f>
         <v>0.66666666666666663</v>
       </c>
@@ -982,10 +987,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <f>C10^C11</f>
         <v>1.073741824E+39</v>
       </c>
@@ -994,10 +999,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <f>SQRT(C10)</f>
         <v>4.4721359549995796</v>
       </c>
@@ -1006,10 +1011,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <f>(C10+C11)/2</f>
         <v>25</v>
       </c>
@@ -1039,7 +1044,7 @@
       <c r="G23" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
